--- a/django_project/wfrp/example_media/default_spells.xlsx
+++ b/django_project/wfrp/example_media/default_spells.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t xml:space="preserve">character</t>
   </si>
@@ -46,10 +46,28 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">GUNNAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test spell</t>
+    <t xml:space="preserve">FERDINAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFRP, Page 240</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Light</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFRP, Page 241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFRP, Page 242</t>
   </si>
 </sst>
 </file>
@@ -59,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -80,6 +98,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,8 +147,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,17 +173,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O10" activeCellId="0" sqref="O10"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -199,16 +228,68 @@
         <v>43</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>9</v>
+      <c r="E3" s="0" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2580</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
